--- a/example_pandas.xlsx
+++ b/example_pandas.xlsx
@@ -460,1396 +460,1396 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C2" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D2" t="n">
-        <v>317.5915378293334</v>
+        <v>333.5636207181868</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.002124929281062256</v>
+        <v>0.002130292625418449</v>
       </c>
       <c r="B3" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C3" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D3" t="n">
-        <v>317.4185482396418</v>
+        <v>333.2521798098853</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.004249858562124511</v>
+        <v>0.004260585250836899</v>
       </c>
       <c r="B4" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C4" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D4" t="n">
-        <v>317.245467882592</v>
+        <v>332.9404427007688</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.006374787843186767</v>
+        <v>0.006390877876255348</v>
       </c>
       <c r="B5" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C5" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D5" t="n">
-        <v>317.0722967453827</v>
+        <v>332.6284092452872</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.008499717124249023</v>
+        <v>0.008521170501673798</v>
       </c>
       <c r="B6" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C6" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D6" t="n">
-        <v>316.8990348155432</v>
+        <v>332.3160793006246</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01062464640531128</v>
+        <v>0.01065146312709225</v>
       </c>
       <c r="B7" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C7" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D7" t="n">
-        <v>316.7256820809353</v>
+        <v>332.0034527267377</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01274957568637353</v>
+        <v>0.0127817557525107</v>
       </c>
       <c r="B8" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C8" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D8" t="n">
-        <v>316.5522385297553</v>
+        <v>331.6905293863946</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01487450496743579</v>
+        <v>0.01491204837792915</v>
       </c>
       <c r="B9" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C9" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D9" t="n">
-        <v>316.3787041505362</v>
+        <v>331.3773091452131</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.01699943424849805</v>
+        <v>0.0170423410033476</v>
       </c>
       <c r="B10" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C10" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D10" t="n">
-        <v>316.2050789321498</v>
+        <v>331.0637918717001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0191243635295603</v>
+        <v>0.01917263362876604</v>
       </c>
       <c r="B11" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C11" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D11" t="n">
-        <v>316.0313628638085</v>
+        <v>330.749977437291</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.02124929281062256</v>
+        <v>0.02130292625418449</v>
       </c>
       <c r="B12" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C12" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D12" t="n">
-        <v>315.8575559350676</v>
+        <v>330.435865716389</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.02337422209168481</v>
+        <v>0.02343321887960294</v>
       </c>
       <c r="B13" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C13" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D13" t="n">
-        <v>315.6836581358274</v>
+        <v>330.1214565864053</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.02549915137274707</v>
+        <v>0.02556351150502139</v>
       </c>
       <c r="B14" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C14" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D14" t="n">
-        <v>315.5096694563352</v>
+        <v>329.806749927799</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.02762408065380932</v>
+        <v>0.02769380413043984</v>
       </c>
       <c r="B15" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C15" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D15" t="n">
-        <v>315.3355898871871</v>
+        <v>329.4917456241179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.02974900993487158</v>
+        <v>0.02982409675585829</v>
       </c>
       <c r="B16" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C16" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D16" t="n">
-        <v>315.1614194193306</v>
+        <v>329.176443562039</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.03187393921593384</v>
+        <v>0.03195438938127674</v>
       </c>
       <c r="B17" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C17" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D17" t="n">
-        <v>314.9871580440665</v>
+        <v>328.8608436314093</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.03399886849699609</v>
+        <v>0.03408468200669519</v>
       </c>
       <c r="B18" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C18" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D18" t="n">
-        <v>314.8128057530507</v>
+        <v>328.5449457252875</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.03612379777805835</v>
+        <v>0.03621497463211364</v>
       </c>
       <c r="B19" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C19" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D19" t="n">
-        <v>314.6383625382967</v>
+        <v>328.2287497399852</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0382487270591206</v>
+        <v>0.03834526725753209</v>
       </c>
       <c r="B20" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C20" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D20" t="n">
-        <v>314.4638283921777</v>
+        <v>327.9122555751089</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.04037365634018286</v>
+        <v>0.04047555988295054</v>
       </c>
       <c r="B21" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C21" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D21" t="n">
-        <v>314.2892033074284</v>
+        <v>327.595463133602</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.04249858562124512</v>
+        <v>0.04260585250836899</v>
       </c>
       <c r="B22" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C22" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D22" t="n">
-        <v>314.1144872771472</v>
+        <v>327.2783723217872</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.04462351490230737</v>
+        <v>0.04473614513378744</v>
       </c>
       <c r="B23" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C23" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D23" t="n">
-        <v>313.9396802947987</v>
+        <v>326.960983049409</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.04674844418336963</v>
+        <v>0.04686643775920589</v>
       </c>
       <c r="B24" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C24" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D24" t="n">
-        <v>313.7647823542154</v>
+        <v>326.6432952296769</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.04887337346443188</v>
+        <v>0.04899673038462433</v>
       </c>
       <c r="B25" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C25" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D25" t="n">
-        <v>313.5897934495999</v>
+        <v>326.3253087793084</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.05099830274549413</v>
+        <v>0.05112702301004279</v>
       </c>
       <c r="B26" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C26" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D26" t="n">
-        <v>313.4147135755272</v>
+        <v>326.0070236185723</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.0531232320265564</v>
+        <v>0.05325731563546124</v>
       </c>
       <c r="B27" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C27" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D27" t="n">
-        <v>313.2395427269468</v>
+        <v>325.6884396713327</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.05524816130761865</v>
+        <v>0.05538760826087968</v>
       </c>
       <c r="B28" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C28" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D28" t="n">
-        <v>313.0642808991847</v>
+        <v>325.3695568650928</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.0573730905886809</v>
+        <v>0.05751790088629814</v>
       </c>
       <c r="B29" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C29" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D29" t="n">
-        <v>312.8889280879457</v>
+        <v>325.0503751310392</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.05949801986974316</v>
+        <v>0.05964819351171659</v>
       </c>
       <c r="B30" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C30" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D30" t="n">
-        <v>312.7134842893156</v>
+        <v>324.7308944040865</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.06162294915080541</v>
+        <v>0.06177848613713503</v>
       </c>
       <c r="B31" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C31" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D31" t="n">
-        <v>312.5379494997631</v>
+        <v>324.4111146229222</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.06374787843186767</v>
+        <v>0.06390877876255348</v>
       </c>
       <c r="B32" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C32" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D32" t="n">
-        <v>312.3623237161423</v>
+        <v>324.0910357300511</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.06587280771292993</v>
+        <v>0.06603907138797194</v>
       </c>
       <c r="B33" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C33" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D33" t="n">
-        <v>312.1866069356945</v>
+        <v>323.7706576718417</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.06799773699399218</v>
+        <v>0.06816936401339038</v>
       </c>
       <c r="B34" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C34" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D34" t="n">
-        <v>312.0107991560508</v>
+        <v>323.4499803985708</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.07012266627505444</v>
+        <v>0.07029965663880883</v>
       </c>
       <c r="B35" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C35" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D35" t="n">
-        <v>311.8349003752339</v>
+        <v>323.12900386447</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.07224759555611669</v>
+        <v>0.07242994926422729</v>
       </c>
       <c r="B36" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C36" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D36" t="n">
-        <v>311.6589105916606</v>
+        <v>322.8077280277713</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.07437252483717895</v>
+        <v>0.07456024188964573</v>
       </c>
       <c r="B37" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C37" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D37" t="n">
-        <v>311.4828298041435</v>
+        <v>322.486152850754</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.0764974541182412</v>
+        <v>0.07669053451506418</v>
       </c>
       <c r="B38" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C38" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D38" t="n">
-        <v>311.3066580118938</v>
+        <v>322.164278299791</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.07862238339930346</v>
+        <v>0.07882082714048264</v>
       </c>
       <c r="B39" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C39" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D39" t="n">
-        <v>311.1303952145232</v>
+        <v>321.8421043453957</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.08074731268036572</v>
+        <v>0.08095111976590108</v>
       </c>
       <c r="B40" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C40" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D40" t="n">
-        <v>310.9540414120459</v>
+        <v>321.5196309622692</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.08287224196142798</v>
+        <v>0.08308141239131953</v>
       </c>
       <c r="B41" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C41" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D41" t="n">
-        <v>310.7775966048812</v>
+        <v>321.1968581293478</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.08499717124249023</v>
+        <v>0.08521170501673797</v>
       </c>
       <c r="B42" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C42" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D42" t="n">
-        <v>310.6010607938554</v>
+        <v>320.8737858298504</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.08712210052355249</v>
+        <v>0.08734199764215643</v>
       </c>
       <c r="B43" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C43" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D43" t="n">
-        <v>310.4244339802041</v>
+        <v>320.5504140513268</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.08924702980461474</v>
+        <v>0.08947229026757487</v>
       </c>
       <c r="B44" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C44" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D44" t="n">
-        <v>310.2477161655745</v>
+        <v>320.2267427857054</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.091371959085677</v>
+        <v>0.09160258289299332</v>
       </c>
       <c r="B45" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C45" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D45" t="n">
-        <v>310.0709073520276</v>
+        <v>319.9027720293417</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.09349688836673925</v>
+        <v>0.09373287551841178</v>
       </c>
       <c r="B46" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C46" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D46" t="n">
-        <v>309.8940075420402</v>
+        <v>319.5785017830673</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.0956218176478015</v>
+        <v>0.09586316814383022</v>
       </c>
       <c r="B47" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C47" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D47" t="n">
-        <v>309.7170167385074</v>
+        <v>319.2539320522386</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.09774674692886376</v>
+        <v>0.09799346076924867</v>
       </c>
       <c r="B48" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C48" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D48" t="n">
-        <v>309.5399349447448</v>
+        <v>318.9290628467854</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.09987167620992601</v>
+        <v>0.1001237533946671</v>
       </c>
       <c r="B49" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C49" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D49" t="n">
-        <v>309.3627621644906</v>
+        <v>318.6038941812613</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.1019966054909883</v>
+        <v>0.1022540460200856</v>
       </c>
       <c r="B50" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C50" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D50" t="n">
-        <v>309.1854984019077</v>
+        <v>318.2784260748923</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.1041215347720505</v>
+        <v>0.104384338645504</v>
       </c>
       <c r="B51" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C51" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D51" t="n">
-        <v>309.0081436615864</v>
+        <v>317.9526585516273</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.1062464640531128</v>
+        <v>0.1065146312709225</v>
       </c>
       <c r="B52" t="n">
-        <v>214.4634484600309</v>
+        <v>323.3323840127322</v>
       </c>
       <c r="C52" t="n">
-        <v>2340.083505943287</v>
+        <v>2731.588607852873</v>
       </c>
       <c r="D52" t="n">
-        <v>308.8306979485463</v>
+        <v>317.6265916401879</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.108371393334175</v>
+        <v>0.1086449238963409</v>
       </c>
       <c r="B53" t="n">
-        <v>216.7437767800626</v>
+        <v>330.5849751880634</v>
       </c>
       <c r="C53" t="n">
-        <v>2339.992567038907</v>
+        <v>2731.417952065297</v>
       </c>
       <c r="D53" t="n">
-        <v>308.6523707525309</v>
+        <v>317.2972447996897</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.1104963226152373</v>
+        <v>0.1107752165217594</v>
       </c>
       <c r="B54" t="n">
-        <v>234.4736043913707</v>
+        <v>357.8807024347767</v>
       </c>
       <c r="C54" t="n">
-        <v>2339.243162467497</v>
+        <v>2730.731826723408</v>
       </c>
       <c r="D54" t="n">
-        <v>308.4679759868632</v>
+        <v>316.9567396683809</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.1126212518962996</v>
+        <v>0.1129055091471778</v>
       </c>
       <c r="B55" t="n">
-        <v>254.5659295754059</v>
+        <v>388.848305923426</v>
       </c>
       <c r="C55" t="n">
-        <v>2338.301068694753</v>
+        <v>2729.867375336327</v>
       </c>
       <c r="D55" t="n">
-        <v>308.2770497443087</v>
+        <v>316.6042384499474</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.1147461811773618</v>
+        <v>0.1150358017725963</v>
       </c>
       <c r="B56" t="n">
-        <v>277.4690448923027</v>
+        <v>424.1911545571294</v>
       </c>
       <c r="C56" t="n">
-        <v>2337.102575082766</v>
+        <v>2728.764952027217</v>
       </c>
       <c r="D56" t="n">
-        <v>308.0790748586553</v>
+        <v>316.2388093337374</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.1168711104584241</v>
+        <v>0.1171660943980147</v>
       </c>
       <c r="B57" t="n">
-        <v>303.7442232306107</v>
+        <v>464.7914813363039</v>
       </c>
       <c r="C57" t="n">
-        <v>2335.557309200075</v>
+        <v>2727.339634739709</v>
       </c>
       <c r="D57" t="n">
-        <v>307.8734739431726</v>
+        <v>315.8594145039074</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.1189960397394863</v>
+        <v>0.1192963870234332</v>
       </c>
       <c r="B58" t="n">
-        <v>334.1019655796721</v>
+        <v>511.7682087154529</v>
       </c>
       <c r="C58" t="n">
-        <v>2333.534176175032</v>
+        <v>2725.467708511244</v>
       </c>
       <c r="D58" t="n">
-        <v>307.6596022294781</v>
+        <v>315.4648978161206</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.1211209690205486</v>
+        <v>0.1214266796488516</v>
       </c>
       <c r="B59" t="n">
-        <v>369.452634990099</v>
+        <v>566.5578250557253</v>
       </c>
       <c r="C59" t="n">
-        <v>2330.837904256295</v>
+        <v>2722.963974889819</v>
       </c>
       <c r="D59" t="n">
-        <v>307.4367411603287</v>
+        <v>315.0539737198802</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.1232458983016108</v>
+        <v>0.1235569722742701</v>
       </c>
       <c r="B60" t="n">
-        <v>410.9783868801767</v>
+        <v>631.0293453434483</v>
       </c>
       <c r="C60" t="n">
-        <v>2327.168135898399</v>
+        <v>2719.541870366715</v>
       </c>
       <c r="D60" t="n">
-        <v>307.204094951716</v>
+        <v>314.6252210664917</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.1253708275826731</v>
+        <v>0.1256872648996885</v>
       </c>
       <c r="B61" t="n">
-        <v>460.2372373383295</v>
+        <v>707.6505107811486</v>
       </c>
       <c r="C61" t="n">
-        <v>2322.043926060298</v>
+        <v>2714.739149867629</v>
       </c>
       <c r="D61" t="n">
-        <v>306.9607952409261</v>
+        <v>314.1770901775149</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.1274957568637353</v>
+        <v>0.127817557525107</v>
       </c>
       <c r="B62" t="n">
-        <v>519.2869494448901</v>
+        <v>799.5124817975823</v>
       </c>
       <c r="C62" t="n">
-        <v>2314.657690945897</v>
+        <v>2707.786579582718</v>
       </c>
       <c r="D62" t="n">
-        <v>306.7059315014924</v>
+        <v>313.707989471996</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.1296206861447976</v>
+        <v>0.1299478501505254</v>
       </c>
       <c r="B63" t="n">
-        <v>583.527844244369</v>
+        <v>897.9299851712864</v>
       </c>
       <c r="C63" t="n">
-        <v>2304.818485235091</v>
+        <v>2698.63257939492</v>
       </c>
       <c r="D63" t="n">
-        <v>306.4398187243739</v>
+        <v>313.2187928825209</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.1317456154258599</v>
+        <v>0.1320781427759439</v>
       </c>
       <c r="B64" t="n">
-        <v>647.4115977819238</v>
+        <v>995.5764288809121</v>
       </c>
       <c r="C64" t="n">
-        <v>2292.755447325744</v>
+        <v>2687.399391719232</v>
       </c>
       <c r="D64" t="n">
-        <v>306.1637971442387</v>
+        <v>312.7118538306445</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.1338705447069221</v>
+        <v>0.1342084354013623</v>
       </c>
       <c r="B65" t="n">
-        <v>709.9597745187148</v>
+        <v>1090.838286036166</v>
       </c>
       <c r="C65" t="n">
-        <v>2278.128486475291</v>
+        <v>2673.769892824078</v>
       </c>
       <c r="D65" t="n">
-        <v>305.8793005295008</v>
+        <v>312.1896538768776</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.1359954739879844</v>
+        <v>0.1363387280267808</v>
       </c>
       <c r="B66" t="n">
-        <v>769.8649315844973</v>
+        <v>1181.615980264692</v>
       </c>
       <c r="C66" t="n">
-        <v>2260.602171804793</v>
+        <v>2657.429166703852</v>
       </c>
       <c r="D66" t="n">
-        <v>305.5879024490249</v>
+        <v>311.6548758728682</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.1381204032690466</v>
+        <v>0.1384690206521992</v>
       </c>
       <c r="B67" t="n">
-        <v>825.5939169128495</v>
+        <v>1265.438611969317</v>
       </c>
       <c r="C67" t="n">
-        <v>2239.858937125668</v>
+        <v>2638.08652825089</v>
       </c>
       <c r="D67" t="n">
-        <v>305.2913326140765</v>
+        <v>311.1104339351647</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.1402453325501089</v>
+        <v>0.1405993132776177</v>
       </c>
       <c r="B68" t="n">
-        <v>875.5156064610989</v>
+        <v>1339.769415416579</v>
       </c>
       <c r="C68" t="n">
-        <v>2215.602913551954</v>
+        <v>2615.457158217823</v>
       </c>
       <c r="D68" t="n">
-        <v>304.9914705674603</v>
+        <v>310.5594558783152</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.1423702618311711</v>
+        <v>0.1427296059030361</v>
       </c>
       <c r="B69" t="n">
-        <v>917.9716812047104</v>
+        <v>1402.032130513096</v>
       </c>
       <c r="C69" t="n">
-        <v>2187.592066893501</v>
+        <v>2589.304824138603</v>
       </c>
       <c r="D69" t="n">
-        <v>304.6903262315198</v>
+        <v>310.0052606968072</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.1444951911122334</v>
+        <v>0.1448598985284546</v>
       </c>
       <c r="B70" t="n">
-        <v>951.4626505179422</v>
+        <v>1449.833339488386</v>
       </c>
       <c r="C70" t="n">
-        <v>2155.608674136349</v>
+        <v>2559.472684941217</v>
       </c>
       <c r="D70" t="n">
-        <v>304.3900052138613</v>
+        <v>309.4513060505092</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.1466201203932956</v>
+        <v>0.146990191153873</v>
       </c>
       <c r="B71" t="n">
-        <v>974.6672511619942</v>
+        <v>1481.313907052094</v>
       </c>
       <c r="C71" t="n">
-        <v>2119.55598893633</v>
+        <v>2525.786723124312</v>
       </c>
       <c r="D71" t="n">
-        <v>304.0926625778558</v>
+        <v>308.9011272612844</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.1487450496743579</v>
+        <v>0.1491204837792915</v>
       </c>
       <c r="B72" t="n">
-        <v>985.996868252212</v>
+        <v>1493.835455617325</v>
       </c>
       <c r="C72" t="n">
-        <v>2054.954685815546</v>
+        <v>2471.613350116403</v>
       </c>
       <c r="D72" t="n">
-        <v>303.8046843671565</v>
+        <v>308.3627641251979</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.1508699789554201</v>
+        <v>0.1512507764047099</v>
       </c>
       <c r="B73" t="n">
-        <v>983.6023501369611</v>
+        <v>1479.388618230842</v>
       </c>
       <c r="C73" t="n">
-        <v>2015.973196896204</v>
+        <v>2419.691459483315</v>
       </c>
       <c r="D73" t="n">
-        <v>303.5233167231056</v>
+        <v>307.8391645986786</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.1529949082364824</v>
+        <v>0.1533810690301284</v>
       </c>
       <c r="B74" t="n">
-        <v>939.7689235926917</v>
+        <v>1396.365057480202</v>
       </c>
       <c r="C74" t="n">
-        <v>1911.407770292687</v>
+        <v>2318.749342476637</v>
       </c>
       <c r="D74" t="n">
-        <v>303.2640578793382</v>
+        <v>307.3515669113208</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.1551198375175447</v>
+        <v>0.1555113616555468</v>
       </c>
       <c r="B75" t="n">
-        <v>860.9755917334483</v>
+        <v>1297.658869346259</v>
       </c>
       <c r="C75" t="n">
-        <v>1798.534969563135</v>
+        <v>2235.177480076205</v>
       </c>
       <c r="D75" t="n">
-        <v>303.0314794080759</v>
+        <v>306.8971168467784</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.1572447667986069</v>
+        <v>0.1576416542809653</v>
       </c>
       <c r="B76" t="n">
-        <v>790.7477911939096</v>
+        <v>1210.625830937555</v>
       </c>
       <c r="C76" t="n">
-        <v>1713.726780510135</v>
+        <v>2169.338878054171</v>
       </c>
       <c r="D76" t="n">
-        <v>302.8195931679121</v>
+        <v>306.4696649848933</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.1593696960796692</v>
+        <v>0.1597719469063837</v>
       </c>
       <c r="B77" t="n">
-        <v>730.9977592764235</v>
+        <v>1133.130759297272</v>
       </c>
       <c r="C77" t="n">
-        <v>1645.22310474101</v>
+        <v>2112.849188700417</v>
       </c>
       <c r="D77" t="n">
-        <v>302.6243892268413</v>
+        <v>306.0655667735684</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.1614946253607314</v>
+        <v>0.1619022395318022</v>
       </c>
       <c r="B78" t="n">
-        <v>679.6630252999198</v>
+        <v>1063.710721177364</v>
       </c>
       <c r="C78" t="n">
-        <v>1586.965283100308</v>
+        <v>2062.587553382768</v>
       </c>
       <c r="D78" t="n">
-        <v>302.4431711224813</v>
+        <v>305.6821865210513</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.1636195546417937</v>
+        <v>0.1640325321572206</v>
       </c>
       <c r="B79" t="n">
-        <v>635.1959392929627</v>
+        <v>1001.234380878276</v>
       </c>
       <c r="C79" t="n">
-        <v>1536.021300543137</v>
+        <v>2016.9527997735</v>
       </c>
       <c r="D79" t="n">
-        <v>302.273938292197</v>
+        <v>305.3174483940052</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.165744483922856</v>
+        <v>0.1661628247826391</v>
       </c>
       <c r="B80" t="n">
-        <v>596.4026976746753</v>
+        <v>944.781869069102</v>
       </c>
       <c r="C80" t="n">
-        <v>1490.660552920168</v>
+        <v>1974.975918707361</v>
       </c>
       <c r="D80" t="n">
-        <v>302.1151299239512</v>
+        <v>304.9696417255544</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.1678694132039182</v>
+        <v>0.1682931174080575</v>
       </c>
       <c r="B81" t="n">
-        <v>562.3461265559762</v>
+        <v>893.5853257285582</v>
       </c>
       <c r="C81" t="n">
-        <v>1449.742417131659</v>
+        <v>1936.005902645745</v>
       </c>
       <c r="D81" t="n">
-        <v>301.9654899289019</v>
+        <v>304.6373183874949</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.1699943424849805</v>
+        <v>0.1704234100334759</v>
       </c>
       <c r="B82" t="n">
-        <v>532.2891604051376</v>
+        <v>847.0060288476813</v>
       </c>
       <c r="C82" t="n">
-        <v>1412.471814061486</v>
+        <v>1899.581281414463</v>
       </c>
       <c r="D82" t="n">
-        <v>301.8239831209984</v>
+        <v>304.3192276665475</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.1721192717660427</v>
+        <v>0.1725537026588944</v>
       </c>
       <c r="B83" t="n">
-        <v>505.6238267971295</v>
+        <v>804.51312209355</v>
       </c>
       <c r="C83" t="n">
-        <v>1378.243245857626</v>
+        <v>1865.36386339153</v>
       </c>
       <c r="D83" t="n">
-        <v>301.6897460913494</v>
+        <v>304.0142715042949</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.174244201047105</v>
+        <v>0.1746839952843129</v>
       </c>
       <c r="B84" t="n">
-        <v>481.8598718025644</v>
+        <v>765.6412573619401</v>
       </c>
       <c r="C84" t="n">
-        <v>1346.597016868182</v>
+        <v>1833.082928512301</v>
       </c>
       <c r="D84" t="n">
-        <v>301.5620485230538</v>
+        <v>303.7214792722225</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.1763691303281672</v>
+        <v>0.1768142879097313</v>
       </c>
       <c r="B85" t="n">
-        <v>460.5963121953804</v>
+        <v>729.9921933322066</v>
       </c>
       <c r="C85" t="n">
-        <v>1317.173330184351</v>
+        <v>1802.523065156324</v>
       </c>
       <c r="D85" t="n">
-        <v>301.4402657994215</v>
+        <v>303.4399856521488</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.1784940596092295</v>
+        <v>0.1789445805351497</v>
       </c>
       <c r="B86" t="n">
-        <v>441.5012755665147</v>
+        <v>697.2379337679056</v>
       </c>
       <c r="C86" t="n">
-        <v>1289.683657678756</v>
+        <v>1773.520794899219</v>
       </c>
       <c r="D86" t="n">
-        <v>301.3238589013046</v>
+        <v>303.1690092398956</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.1806189888902917</v>
+        <v>0.1810748731605682</v>
       </c>
       <c r="B87" t="n">
-        <v>424.3088200042366</v>
+        <v>667.0703683021421</v>
       </c>
       <c r="C87" t="n">
-        <v>1263.908456660156</v>
+        <v>1745.922697298685</v>
       </c>
       <c r="D87" t="n">
-        <v>301.2123560323337</v>
+        <v>302.9078473864633</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.182743918171354</v>
+        <v>0.1832051657859866</v>
       </c>
       <c r="B88" t="n">
-        <v>408.7764294419615</v>
+        <v>639.2468550346464</v>
       </c>
       <c r="C88" t="n">
-        <v>1239.640344840255</v>
+        <v>1719.61986948331</v>
       </c>
       <c r="D88" t="n">
-        <v>301.1053464078938</v>
+        <v>302.6558574259697</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.1848688474524162</v>
+        <v>0.1853354584114051</v>
       </c>
       <c r="B89" t="n">
-        <v>394.7064543427773</v>
+        <v>613.5346194849287</v>
       </c>
       <c r="C89" t="n">
-        <v>1216.715921349332</v>
+        <v>1694.503527825141</v>
       </c>
       <c r="D89" t="n">
-        <v>301.0024683556756</v>
+        <v>302.4124551690376</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.1869937767334785</v>
+        <v>0.1874657510368236</v>
       </c>
       <c r="B90" t="n">
-        <v>381.9379236234607</v>
+        <v>589.7404830032614</v>
       </c>
       <c r="C90" t="n">
-        <v>1195.008630644749</v>
+        <v>1670.489185251865</v>
       </c>
       <c r="D90" t="n">
-        <v>300.9033996600473</v>
+        <v>302.1771041590624</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.1891187060145408</v>
+        <v>0.189596043662242</v>
       </c>
       <c r="B91" t="n">
-        <v>370.3284854020453</v>
+        <v>567.6988135454542</v>
       </c>
       <c r="C91" t="n">
-        <v>1174.404746741043</v>
+        <v>1647.507983599065</v>
       </c>
       <c r="D91" t="n">
-        <v>300.8078529466518</v>
+        <v>301.9493085014228</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.191243635295603</v>
+        <v>0.1917263362876604</v>
       </c>
       <c r="B92" t="n">
-        <v>359.7488616823236</v>
+        <v>547.2526452275115</v>
       </c>
       <c r="C92" t="n">
-        <v>1154.795956716754</v>
+        <v>1625.490925606353</v>
       </c>
       <c r="D92" t="n">
-        <v>300.7155726513074</v>
+        <v>301.7286115790213</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.1933685645766653</v>
+        <v>0.1938566289130789</v>
       </c>
       <c r="B93" t="n">
-        <v>350.1015756545679</v>
+        <v>528.2702221866247</v>
       </c>
       <c r="C93" t="n">
-        <v>1136.112482746149</v>
+        <v>1604.384000806406</v>
       </c>
       <c r="D93" t="n">
-        <v>300.6263265142341</v>
+        <v>301.5145893523292</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.1954934938577275</v>
+        <v>0.1959869215384973</v>
       </c>
       <c r="B94" t="n">
-        <v>341.2906568387743</v>
+        <v>510.63500696786</v>
       </c>
       <c r="C94" t="n">
-        <v>1118.275795472473</v>
+        <v>1584.140429020381</v>
       </c>
       <c r="D94" t="n">
-        <v>300.5399057060269</v>
+        <v>301.3068466710404</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.1976184231387898</v>
+        <v>0.1981172141639158</v>
       </c>
       <c r="B95" t="n">
-        <v>333.2344133319671</v>
+        <v>494.2438099448526</v>
       </c>
       <c r="C95" t="n">
-        <v>1101.220796326706</v>
+        <v>1564.719734232589</v>
       </c>
       <c r="D95" t="n">
-        <v>300.4561212257079</v>
+        <v>301.1050140438991</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.199743352419852</v>
+        <v>0.2002475067893343</v>
       </c>
       <c r="B96" t="n">
-        <v>325.8706980221043</v>
+        <v>479.0052128336009</v>
       </c>
       <c r="C96" t="n">
-        <v>1084.908046023562</v>
+        <v>1546.087014114391</v>
       </c>
       <c r="D96" t="n">
-        <v>300.3747986048523</v>
+        <v>300.908744785054</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.2018682817009143</v>
+        <v>0.2023777994147527</v>
       </c>
       <c r="B97" t="n">
-        <v>319.1280650039031</v>
+        <v>464.8382392284536</v>
       </c>
       <c r="C97" t="n">
-        <v>1069.272645407497</v>
+        <v>1528.212364708571</v>
       </c>
       <c r="D97" t="n">
-        <v>300.2957811208138</v>
+        <v>300.7177124708379</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.2039932109819765</v>
+        <v>0.2045080920401711</v>
       </c>
       <c r="B98" t="n">
-        <v>312.9648408623431</v>
+        <v>451.6712345224773</v>
       </c>
       <c r="C98" t="n">
-        <v>1054.297770301121</v>
+        <v>1511.070431027687</v>
       </c>
       <c r="D98" t="n">
-        <v>300.2189212682195</v>
+        <v>300.5316086525003</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.2061181402630388</v>
+        <v>0.2066383846655896</v>
       </c>
       <c r="B99" t="n">
-        <v>307.3216510989993</v>
+        <v>439.4423760337785</v>
       </c>
       <c r="C99" t="n">
-        <v>1039.926075674618</v>
+        <v>1494.641570569098</v>
       </c>
       <c r="D99" t="n">
-        <v>300.1440864598855</v>
+        <v>300.3501402902754</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.2082430695441011</v>
+        <v>0.208768677291008</v>
       </c>
       <c r="B100" t="n">
-        <v>302.1675599315255</v>
+        <v>428.1017186430821</v>
       </c>
       <c r="C100" t="n">
-        <v>1026.149824149213</v>
+        <v>1478.914720712035</v>
       </c>
       <c r="D100" t="n">
-        <v>300.0711506865155</v>
+        <v>300.1730263882391</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.2103679988251633</v>
+        <v>0.2108989699164265</v>
       </c>
       <c r="B101" t="n">
-        <v>297.4547146729868</v>
+        <v>417.5950625782592</v>
       </c>
       <c r="C101" t="n">
-        <v>1012.921861839989</v>
+        <v>1463.87094781535</v>
       </c>
       <c r="D101" t="n">
         <v>300</v>
